--- a/src/test/resources/TestDriver/TestGFO/ActivityData/ActivityData.xlsx
+++ b/src/test/resources/TestDriver/TestGFO/ActivityData/ActivityData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestGFO\TestGFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestGFO\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9590231-1EDD-4E06-9CA3-C819F82A6401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FAA413-71A1-4C05-ADF4-7BA5241B77F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TransactionActivity!$A$1:$F$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">xxTransactionActivity!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="75">
   <si>
     <t>PostingDate</t>
   </si>
@@ -265,6 +266,9 @@
   </si>
   <si>
     <t>PAYMENT_PRINCIPAL</t>
+  </si>
+  <si>
+    <t>TransactionName</t>
   </si>
 </sst>
 </file>
@@ -1224,9 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A9CC0-A1B0-44B9-AC56-19A480FED1A4}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1249,7 +1251,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>67</v>
@@ -1286,13 +1288,13 @@
         <v>45658</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="18">
-        <v>26698.39</v>
+        <v>70</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2908.09</v>
       </c>
       <c r="F3" s="17">
         <v>1</v>
@@ -1306,13 +1308,13 @@
         <v>45658</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="18">
-        <v>194342.22</v>
+        <v>26698.39</v>
       </c>
       <c r="F4" s="17">
         <v>1</v>
@@ -1326,13 +1328,13 @@
         <v>45658</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="18">
-        <v>29927.08</v>
+        <v>70</v>
+      </c>
+      <c r="E5" s="6">
+        <v>775.5</v>
       </c>
       <c r="F5" s="17">
         <v>1</v>
@@ -1346,13 +1348,13 @@
         <v>45658</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="18">
-        <v>23941.68</v>
+        <v>194342.22</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
@@ -1366,13 +1368,13 @@
         <v>45658</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="18">
-        <v>48930.259999999995</v>
+        <v>70</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2731.44</v>
       </c>
       <c r="F7" s="17">
         <v>1</v>
@@ -1386,13 +1388,13 @@
         <v>45658</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="18">
-        <v>18184.289999999997</v>
+        <v>675</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -1406,13 +1408,13 @@
         <v>45658</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="18">
-        <v>18184.289999999997</v>
+        <v>70</v>
+      </c>
+      <c r="E9" s="6">
+        <v>471.46</v>
       </c>
       <c r="F9" s="17">
         <v>1</v>
@@ -1426,13 +1428,13 @@
         <v>45658</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="18">
-        <v>65296.259999999995</v>
+        <v>7587.83</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
@@ -1446,13 +1448,13 @@
         <v>45658</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="18">
-        <v>31064.739999999998</v>
+        <v>70</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5299.84</v>
       </c>
       <c r="F11" s="17">
         <v>1</v>
@@ -1466,13 +1468,13 @@
         <v>45658</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="6">
-        <v>870</v>
+      <c r="E12" s="18">
+        <v>6000.0000000000009</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -1486,13 +1488,13 @@
         <v>45658</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6">
-        <v>1427.27</v>
+        <v>4190.79</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -1506,13 +1508,13 @@
         <v>45658</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="18">
-        <v>675</v>
+        <v>34048.19</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
@@ -1526,13 +1528,13 @@
         <v>45658</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="18">
-        <v>7587.83</v>
+        <v>70</v>
+      </c>
+      <c r="E15" s="6">
+        <v>23781.49</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
@@ -1546,13 +1548,13 @@
         <v>45658</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="18">
-        <v>6000.0000000000009</v>
+        <v>29927.08</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -1566,13 +1568,13 @@
         <v>45658</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="18">
-        <v>34048.19</v>
+        <v>70</v>
+      </c>
+      <c r="E17" s="6">
+        <v>588.87</v>
       </c>
       <c r="F17" s="17">
         <v>1</v>
@@ -1586,13 +1588,13 @@
         <v>45658</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="18">
-        <v>693</v>
+        <v>23941.68</v>
       </c>
       <c r="F18" s="17">
         <v>1</v>
@@ -1606,13 +1608,13 @@
         <v>45658</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="18">
-        <v>9555.2599999999984</v>
+        <v>70</v>
+      </c>
+      <c r="E19" s="6">
+        <v>471.09</v>
       </c>
       <c r="F19" s="17">
         <v>1</v>
@@ -1626,13 +1628,13 @@
         <v>45658</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="18">
-        <v>1120</v>
+        <v>48930.259999999995</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -1646,13 +1648,13 @@
         <v>45658</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="18">
-        <v>35564.009999999995</v>
+        <v>70</v>
+      </c>
+      <c r="E21" s="6">
+        <v>916.94</v>
       </c>
       <c r="F21" s="17">
         <v>1</v>
@@ -1666,13 +1668,13 @@
         <v>45658</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="18">
-        <v>65296.259999999995</v>
+        <v>693</v>
       </c>
       <c r="F22" s="17">
         <v>1</v>
@@ -1686,13 +1688,13 @@
         <v>45658</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6">
-        <v>1427.27</v>
+        <v>474.47</v>
       </c>
       <c r="F23" s="17">
         <v>1</v>
@@ -1706,13 +1708,13 @@
         <v>45658</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2908.09</v>
+        <v>69</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9555.2599999999984</v>
       </c>
       <c r="F24" s="17">
         <v>1</v>
@@ -1726,13 +1728,13 @@
         <v>45658</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="6">
-        <v>775.5</v>
+        <v>6454.12</v>
       </c>
       <c r="F25" s="17">
         <v>1</v>
@@ -1742,17 +1744,17 @@
       <c r="A26" s="16">
         <v>45688</v>
       </c>
-      <c r="B26" s="16">
-        <v>45658</v>
+      <c r="B26" s="12">
+        <v>45670</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2731.44</v>
+        <v>71</v>
+      </c>
+      <c r="E26" s="18">
+        <v>-9555.26</v>
       </c>
       <c r="F26" s="17">
         <v>1</v>
@@ -1762,17 +1764,17 @@
       <c r="A27" s="16">
         <v>45688</v>
       </c>
-      <c r="B27" s="16">
-        <v>45658</v>
+      <c r="B27" s="12">
+        <v>45670</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6">
-        <v>588.87</v>
+        <v>-8041.81</v>
       </c>
       <c r="F27" s="17">
         <v>1</v>
@@ -1786,13 +1788,13 @@
         <v>45658</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="6">
-        <v>471.09</v>
+        <v>69</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1120</v>
       </c>
       <c r="F28" s="17">
         <v>1</v>
@@ -1806,13 +1808,13 @@
         <v>45658</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="6">
-        <v>916.94</v>
+        <v>751.35</v>
       </c>
       <c r="F29" s="17">
         <v>1</v>
@@ -1822,17 +1824,17 @@
       <c r="A30" s="16">
         <v>45688</v>
       </c>
-      <c r="B30" s="16">
-        <v>45658</v>
+      <c r="B30" s="12">
+        <v>45670</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="6">
-        <v>170.38</v>
+        <v>71</v>
+      </c>
+      <c r="E30" s="18">
+        <v>-1120</v>
       </c>
       <c r="F30" s="17">
         <v>1</v>
@@ -1842,17 +1844,17 @@
       <c r="A31" s="16">
         <v>45688</v>
       </c>
-      <c r="B31" s="16">
-        <v>45658</v>
+      <c r="B31" s="12">
+        <v>45670</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="6">
-        <v>170.38</v>
+        <v>-913.13</v>
       </c>
       <c r="F31" s="17">
         <v>1</v>
@@ -1866,13 +1868,13 @@
         <v>45658</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1891.53</v>
+        <v>69</v>
+      </c>
+      <c r="E32" s="18">
+        <v>35564.009999999995</v>
       </c>
       <c r="F32" s="17">
         <v>1</v>
@@ -1886,13 +1888,13 @@
         <v>45658</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="6">
-        <v>203.58</v>
+        <v>23858.09</v>
       </c>
       <c r="F33" s="17">
         <v>1</v>
@@ -1902,39 +1904,39 @@
       <c r="A34" s="16">
         <v>45688</v>
       </c>
-      <c r="B34" s="16">
-        <v>45658</v>
+      <c r="B34" s="12">
+        <v>45670</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="6">
-        <v>471.46</v>
+        <v>71</v>
+      </c>
+      <c r="E34" s="18">
+        <v>-35564.01</v>
       </c>
       <c r="F34" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
-        <v>45688</v>
-      </c>
-      <c r="B35" s="16">
-        <v>45658</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="6">
-        <v>5299.84</v>
-      </c>
-      <c r="F35" s="17">
+      <c r="A35" s="19">
+        <v>45688</v>
+      </c>
+      <c r="B35" s="20">
+        <v>45670</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="24">
+        <v>-28995.42</v>
+      </c>
+      <c r="F35" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1946,13 +1948,13 @@
         <v>45658</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="6">
-        <v>4190.79</v>
+        <v>69</v>
+      </c>
+      <c r="E36" s="18">
+        <v>18184.289999999997</v>
       </c>
       <c r="F36" s="17">
         <v>1</v>
@@ -1966,13 +1968,13 @@
         <v>45658</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E37" s="6">
-        <v>23781.49</v>
+        <v>170.38</v>
       </c>
       <c r="F37" s="17">
         <v>1</v>
@@ -1982,17 +1984,17 @@
       <c r="A38" s="16">
         <v>45688</v>
       </c>
-      <c r="B38" s="16">
-        <v>45658</v>
+      <c r="B38" s="12">
+        <v>45674</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="6">
-        <v>474.47</v>
+        <v>71</v>
+      </c>
+      <c r="E38" s="18">
+        <v>-18184.29</v>
       </c>
       <c r="F38" s="17">
         <v>1</v>
@@ -2002,17 +2004,17 @@
       <c r="A39" s="16">
         <v>45688</v>
       </c>
-      <c r="B39" s="16">
-        <v>45658</v>
+      <c r="B39" s="12">
+        <v>45674</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="6">
-        <v>6454.12</v>
+        <v>-596.21</v>
       </c>
       <c r="F39" s="17">
         <v>1</v>
@@ -2026,13 +2028,13 @@
         <v>45658</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="6">
-        <v>751.35</v>
+        <v>69</v>
+      </c>
+      <c r="E40" s="18">
+        <v>18184.289999999997</v>
       </c>
       <c r="F40" s="17">
         <v>1</v>
@@ -2046,13 +2048,13 @@
         <v>45658</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E41" s="6">
-        <v>23858.09</v>
+        <v>170.38</v>
       </c>
       <c r="F41" s="17">
         <v>1</v>
@@ -2062,17 +2064,17 @@
       <c r="A42" s="16">
         <v>45688</v>
       </c>
-      <c r="B42" s="16">
-        <v>45658</v>
+      <c r="B42" s="12">
+        <v>45682</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1891.53</v>
+        <v>71</v>
+      </c>
+      <c r="E42" s="18">
+        <v>-18712.476999999999</v>
       </c>
       <c r="F42" s="17">
         <v>1</v>
@@ -2083,16 +2085,16 @@
         <v>45688</v>
       </c>
       <c r="B43" s="12">
-        <v>45674</v>
+        <v>45682</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="18">
-        <v>-18184.29</v>
+        <v>72</v>
+      </c>
+      <c r="E43" s="6">
+        <v>-30</v>
       </c>
       <c r="F43" s="17">
         <v>1</v>
@@ -2102,17 +2104,17 @@
       <c r="A44" s="16">
         <v>45688</v>
       </c>
-      <c r="B44" s="12">
-        <v>45682</v>
+      <c r="B44" s="16">
+        <v>45658</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44" s="18">
-        <v>-18712.476999999999</v>
+        <v>65296.259999999995</v>
       </c>
       <c r="F44" s="17">
         <v>1</v>
@@ -2122,17 +2124,17 @@
       <c r="A45" s="16">
         <v>45688</v>
       </c>
-      <c r="B45" s="12">
-        <v>45670</v>
+      <c r="B45" s="16">
+        <v>45658</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="18">
-        <v>-9555.26</v>
+        <v>70</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1891.53</v>
       </c>
       <c r="F45" s="17">
         <v>1</v>
@@ -2143,16 +2145,16 @@
         <v>45688</v>
       </c>
       <c r="B46" s="12">
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="18">
-        <v>-1120</v>
+        <v>73</v>
+      </c>
+      <c r="E46" s="6">
+        <v>-6330.72</v>
       </c>
       <c r="F46" s="17">
         <v>1</v>
@@ -2162,17 +2164,17 @@
       <c r="A47" s="16">
         <v>45688</v>
       </c>
-      <c r="B47" s="12">
-        <v>45670</v>
+      <c r="B47" s="16">
+        <v>45658</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="18">
-        <v>-35564.01</v>
+        <v>65296.259999999995</v>
       </c>
       <c r="F47" s="17">
         <v>1</v>
@@ -2182,17 +2184,17 @@
       <c r="A48" s="16">
         <v>45688</v>
       </c>
-      <c r="B48" s="12">
-        <v>45674</v>
+      <c r="B48" s="16">
+        <v>45658</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E48" s="6">
-        <v>-596.21</v>
+        <v>1891.53</v>
       </c>
       <c r="F48" s="17">
         <v>1</v>
@@ -2203,16 +2205,16 @@
         <v>45688</v>
       </c>
       <c r="B49" s="12">
-        <v>45682</v>
+        <v>45681</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="6">
-        <v>-30</v>
+        <v>-6330.72</v>
       </c>
       <c r="F49" s="17">
         <v>1</v>
@@ -2222,17 +2224,17 @@
       <c r="A50" s="16">
         <v>45688</v>
       </c>
-      <c r="B50" s="12">
-        <v>45670</v>
+      <c r="B50" s="16">
+        <v>45658</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="6">
-        <v>-8041.81</v>
+        <v>69</v>
+      </c>
+      <c r="E50" s="18">
+        <v>31064.739999999998</v>
       </c>
       <c r="F50" s="17">
         <v>1</v>
@@ -2242,17 +2244,17 @@
       <c r="A51" s="16">
         <v>45688</v>
       </c>
-      <c r="B51" s="12">
-        <v>45670</v>
+      <c r="B51" s="16">
+        <v>45658</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
-        <v>-913.13</v>
+        <v>203.58</v>
       </c>
       <c r="F51" s="17">
         <v>1</v>
@@ -2263,16 +2265,16 @@
         <v>45688</v>
       </c>
       <c r="B52" s="12">
-        <v>45670</v>
+        <v>45313</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="6">
-        <v>-28995.42</v>
+        <v>-6000</v>
       </c>
       <c r="F52" s="17">
         <v>1</v>
@@ -2282,17 +2284,17 @@
       <c r="A53" s="16">
         <v>45688</v>
       </c>
-      <c r="B53" s="12">
-        <v>45681</v>
+      <c r="B53" s="16">
+        <v>45658</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E53" s="6">
-        <v>-6330.72</v>
+        <v>870</v>
       </c>
       <c r="F53" s="17">
         <v>1</v>
@@ -2302,17 +2304,17 @@
       <c r="A54" s="16">
         <v>45688</v>
       </c>
-      <c r="B54" s="12">
-        <v>45313</v>
+      <c r="B54" s="16">
+        <v>45658</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E54" s="6">
-        <v>-6000</v>
+        <v>1427.27</v>
       </c>
       <c r="F54" s="17">
         <v>1</v>
@@ -2322,23 +2324,26 @@
       <c r="A55" s="16">
         <v>45688</v>
       </c>
-      <c r="B55" s="12">
-        <v>45681</v>
+      <c r="B55" s="16">
+        <v>45658</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E55" s="6">
-        <v>-6330.72</v>
+        <v>1427.27</v>
       </c>
       <c r="F55" s="17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F55">
+    <sortCondition ref="C2:C55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
